--- a/Ecopulper/my_graphs/Production Change.xlsx
+++ b/Ecopulper/my_graphs/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3949318160302937</v>
+        <v>0.003987398464232683</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.288041912892368</v>
+        <v>0.04329387558391318</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4451924181776121</v>
+        <v>0.004494849941693246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.342378325527534E-05</v>
+        <v>9.432515071239322E-07</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02654030709527433</v>
+        <v>0.0002679620884009637</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.52071759011596</v>
+        <v>0.1163180128205568</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.2772385122953</v>
+        <v>0.1340525872074068</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.003777122419705847</v>
+        <v>3.813541115960106E-05</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>101.8399124066345</v>
+        <v>1.028218611609191</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.055644492444117</v>
+        <v>0.03085107268998399</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.288031842559576</v>
+        <v>0.0634866151958704</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.3140585145447403</v>
+        <v>0.00317086698487401</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.0002192661340814084</v>
+        <v>2.213811967521906E-06</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.325460670748726</v>
+        <v>0.02347882941830903</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.778707494144328E-05</v>
+        <v>2.805500116664916E-07</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>83.85933579457924</v>
+        <v>0.8466791438404471</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.297998653288232</v>
+        <v>0.02320156141649932</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2.547300327758421</v>
+        <v>0.02571861601609271</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.001069111887773033</v>
+        <v>1.079420326277614E-05</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3.055644492458669</v>
+        <v>0.03085107270453591</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6.402815100736916</v>
+        <v>0.06464551575481892</v>
       </c>
       <c r="C22">
         <v>0</v>
